--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>CE CO</t>
+  </si>
+  <si>
+    <t>276/009</t>
+  </si>
+  <si>
+    <t>Reembolso infonavit</t>
   </si>
 </sst>
 </file>
@@ -923,7 +929,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -976,6 +982,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,22 +994,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1316,7 +1325,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:AC77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="Q43" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1384,7 +1393,7 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="49" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1393,39 +1402,39 @@
       <c r="M1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="47"/>
+      <c r="O1" s="48"/>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="46" t="s">
+      <c r="R1" s="48"/>
+      <c r="S1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="47"/>
+      <c r="T1" s="48"/>
       <c r="U1" s="27" t="s">
         <v>16</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="W1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="46" t="s">
+      <c r="X1" s="48"/>
+      <c r="Y1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="46" t="s">
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="47"/>
+      <c r="AB1" s="48"/>
       <c r="AC1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2137,94 +2146,94 @@
       <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="49" t="s">
+      <c r="F2" s="51"/>
+      <c r="G2" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="49" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51" t="s">
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="50" t="s">
         <v>45</v>
       </c>
       <c r="R2" s="54"/>
       <c r="S2" s="54"/>
       <c r="T2" s="54"/>
       <c r="U2" s="54"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="49" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="51" t="s">
+      <c r="X2" s="53"/>
+      <c r="Y2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="49" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="51" t="s">
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="49" t="s">
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="51" t="s">
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="49" t="s">
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="51" t="s">
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="49" t="s">
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="51" t="s">
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="51" t="s">
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="52"/>
-      <c r="AS2" s="49" t="s">
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="51" t="s">
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="AV2" s="52"/>
-      <c r="AW2" s="49" t="s">
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="50"/>
+      <c r="AX2" s="53"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3765,26 +3774,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:P2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3879,51 +3888,51 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="56" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="55" t="s">
+      <c r="O2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="55" t="s">
+      <c r="S2" s="56" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4145,21 +4154,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="O2"/>
     <mergeCell ref="P2"/>
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -4169,13 +4178,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,21 +4193,28 @@
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>93</v>
       </c>
       <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C2" s="49" t="s">
+      <c r="E1" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="53"/>
+      <c r="E2" s="46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4209,80 +4225,83 @@
       <c r="D3" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="23"/>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -404,9 +404,6 @@
     <t>201/038</t>
   </si>
   <si>
-    <t>190/038</t>
-  </si>
-  <si>
     <t>Sueldo</t>
   </si>
   <si>
@@ -585,6 +582,12 @@
   </si>
   <si>
     <t>Reembolso infonavit</t>
+  </si>
+  <si>
+    <t>277/029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vales de despensa  </t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2036,11 +2039,11 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AY139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AE5" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="AN5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A22" sqref="A21:A22"/>
+      <selection pane="bottomRight" activeCell="AV10" sqref="AV9:AV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,6 +2055,7 @@
     <col min="15" max="15" width="6" style="32" bestFit="1" customWidth="1"/>
     <col min="16" max="22" width="9.140625" customWidth="1"/>
     <col min="48" max="48" width="18.140625" customWidth="1"/>
+    <col min="50" max="50" width="17" customWidth="1"/>
     <col min="51" max="51" width="9.140625" style="25"/>
   </cols>
   <sheetData>
@@ -2129,7 +2133,7 @@
       </c>
       <c r="AP1" s="10"/>
       <c r="AQ1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AR1" s="10"/>
       <c r="AS1" s="7" t="s">
@@ -2141,29 +2145,29 @@
       </c>
       <c r="AV1" s="10"/>
       <c r="AW1" s="7" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="C2" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="51"/>
       <c r="G2" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="51"/>
       <c r="K2" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
@@ -2171,7 +2175,7 @@
       <c r="O2" s="55"/>
       <c r="P2" s="53"/>
       <c r="Q2" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2" s="54"/>
       <c r="S2" s="54"/>
@@ -2179,59 +2183,59 @@
       <c r="U2" s="54"/>
       <c r="V2" s="51"/>
       <c r="W2" s="52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" s="53"/>
       <c r="Y2" s="50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="51"/>
       <c r="AA2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB2" s="53"/>
       <c r="AC2" s="50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD2" s="51"/>
       <c r="AE2" s="52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF2" s="53"/>
       <c r="AG2" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH2" s="51"/>
       <c r="AI2" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AJ2" s="53"/>
       <c r="AK2" s="50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL2" s="51"/>
       <c r="AM2" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AN2" s="53"/>
       <c r="AO2" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="51"/>
       <c r="AQ2" s="50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AR2" s="51"/>
       <c r="AS2" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AT2" s="53"/>
       <c r="AU2" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AV2" s="51"/>
       <c r="AW2" s="52" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AX2" s="53"/>
     </row>
@@ -2243,148 +2247,148 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="N3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="T3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AH3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AJ3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AL3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AN3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX3" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -3839,101 +3843,101 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="F1" s="11"/>
       <c r="G1" s="8"/>
       <c r="H1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>77</v>
       </c>
       <c r="T1"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C2" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="E2" s="52" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>80</v>
       </c>
       <c r="F2" s="55"/>
       <c r="G2" s="53"/>
       <c r="H2" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="J2" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="L2" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="56" t="s">
+      <c r="N2" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="O2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="P2" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="Q2" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="R2" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="S2" s="56" t="s">
         <v>90</v>
-      </c>
-      <c r="S2" s="56" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3944,55 +3948,55 @@
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -4180,7 +4184,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -4198,20 +4202,20 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="53"/>
       <c r="E2" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4220,13 +4224,13 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>Omar</author>
   </authors>
   <commentList>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -573,9 +573,6 @@
   </si>
   <si>
     <t>208/038</t>
-  </si>
-  <si>
-    <t>CE CO</t>
   </si>
   <si>
     <t>276/009</t>
@@ -997,22 +994,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1326,708 +1323,689 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AC77"/>
+  <dimension ref="A1:AB77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="Q43" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q2" sqref="Q2:Q77"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="39" customWidth="1"/>
-    <col min="14" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="25" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" customWidth="1"/>
-    <col min="23" max="26" width="9.7109375" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" customWidth="1"/>
-    <col min="28" max="28" width="19.7109375" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" customWidth="1"/>
-    <col min="31" max="32" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="39" customWidth="1"/>
+    <col min="13" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="25" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="5.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="47" t="s">
+      <c r="P1" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="48"/>
-      <c r="S1" s="47" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="27" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="V1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="47" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="47" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="1" t="s">
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="18"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="19"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="28"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U2" s="28"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="18"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="19"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="18"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="28"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U3" s="28"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="18"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="19"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="20"/>
       <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="28"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U4" s="28"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="19"/>
+      <c r="I5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
       <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="18"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="19"/>
+      <c r="I6" s="18"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="18"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="19"/>
+      <c r="I7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="18"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="19"/>
+      <c r="I8" s="18"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="P8" s="17"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="18"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="P10" s="17"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="18"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="18"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="P13" s="17"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="18"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="20"/>
       <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="18"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
       <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="18"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="19"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
       <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="P20" s="17"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="P21" s="17"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="P23" s="17"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="P24" s="17"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q25" s="17"/>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q29" s="17"/>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q30" s="17"/>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q31" s="17"/>
-    </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q35" s="17"/>
-    </row>
-    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q36" s="17"/>
-    </row>
-    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q37" s="17"/>
-    </row>
-    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q38" s="17"/>
-    </row>
-    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q39" s="17"/>
-    </row>
-    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q41" s="17"/>
-    </row>
-    <row r="42" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q43" s="17"/>
-    </row>
-    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q44" s="17"/>
-    </row>
-    <row r="45" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q45" s="17"/>
-    </row>
-    <row r="46" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q46" s="17"/>
-    </row>
-    <row r="47" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q47" s="17"/>
-    </row>
-    <row r="48" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q48" s="17"/>
-    </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q49" s="17"/>
-    </row>
-    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q50" s="17"/>
-    </row>
-    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q51" s="17"/>
-    </row>
-    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q52" s="17"/>
-    </row>
-    <row r="53" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q53" s="17"/>
-    </row>
-    <row r="54" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q54" s="17"/>
-    </row>
-    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q55" s="17"/>
-    </row>
-    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q56" s="17"/>
-    </row>
-    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q57" s="17"/>
-    </row>
-    <row r="58" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q58" s="17"/>
-    </row>
-    <row r="59" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q59" s="17"/>
-    </row>
-    <row r="60" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q60" s="17"/>
-    </row>
-    <row r="61" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q61" s="17"/>
-    </row>
-    <row r="62" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q62" s="17"/>
-    </row>
-    <row r="63" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q63" s="17"/>
-    </row>
-    <row r="64" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q64" s="17"/>
-    </row>
-    <row r="65" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q65" s="17"/>
-    </row>
-    <row r="66" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q66" s="17"/>
-    </row>
-    <row r="67" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q67" s="17"/>
-    </row>
-    <row r="68" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q68" s="17"/>
-    </row>
-    <row r="69" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q69" s="17"/>
-    </row>
-    <row r="70" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q70" s="17"/>
-    </row>
-    <row r="71" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q71" s="17"/>
-    </row>
-    <row r="72" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q72" s="17"/>
-    </row>
-    <row r="73" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q73" s="17"/>
-    </row>
-    <row r="74" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q74" s="17"/>
-    </row>
-    <row r="75" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q75" s="17"/>
-    </row>
-    <row r="76" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q76" s="17"/>
-    </row>
-    <row r="77" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q77" s="17"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P29" s="17"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P30" s="17"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P31" s="17"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="P32" s="17"/>
+    </row>
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="17"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="17"/>
+    </row>
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="17"/>
+    </row>
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="17"/>
+    </row>
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="17"/>
+    </row>
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="17"/>
+    </row>
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="17"/>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="17"/>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="17"/>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="17"/>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="17"/>
+    </row>
+    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="17"/>
+    </row>
+    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="17"/>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="17"/>
+    </row>
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="17"/>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="17"/>
+    </row>
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="17"/>
+    </row>
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="17"/>
+    </row>
+    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="17"/>
+    </row>
+    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P55" s="17"/>
+    </row>
+    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P56" s="17"/>
+    </row>
+    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P57" s="17"/>
+    </row>
+    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P58" s="17"/>
+    </row>
+    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P59" s="17"/>
+    </row>
+    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P60" s="17"/>
+    </row>
+    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P61" s="17"/>
+    </row>
+    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P62" s="17"/>
+    </row>
+    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P63" s="17"/>
+    </row>
+    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P64" s="17"/>
+    </row>
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P65" s="17"/>
+    </row>
+    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P66" s="17"/>
+    </row>
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P67" s="17"/>
+    </row>
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P68" s="17"/>
+    </row>
+    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P69" s="17"/>
+    </row>
+    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P70" s="17"/>
+    </row>
+    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P71" s="17"/>
+    </row>
+    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P72" s="17"/>
+    </row>
+    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P73" s="17"/>
+    </row>
+    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P74" s="17"/>
+    </row>
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P75" s="17"/>
+    </row>
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P76" s="17"/>
+    </row>
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="K1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="J1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -2039,7 +2017,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AY139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AN5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2145,99 +2123,99 @@
       </c>
       <c r="AV1" s="10"/>
       <c r="AW1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AX1" s="8"/>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="C2" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="53"/>
+      <c r="G2" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="53"/>
+      <c r="K2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="8"/>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="53"/>
-      <c r="I2" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="53"/>
-      <c r="AC2" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="50" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="50" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX2" s="53"/>
+      <c r="AX2" s="51"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3778,26 +3756,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3898,11 +3876,11 @@
       <c r="D2" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="57" t="s">
         <v>80</v>
       </c>
@@ -4158,21 +4136,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O2"/>
+    <mergeCell ref="P2"/>
+    <mergeCell ref="Q2"/>
+    <mergeCell ref="R2"/>
+    <mergeCell ref="S2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="P2"/>
-    <mergeCell ref="Q2"/>
-    <mergeCell ref="R2"/>
-    <mergeCell ref="S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -4206,16 +4184,16 @@
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="46" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="46" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
@@ -1326,10 +1326,10 @@
   <dimension ref="A1:AB77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D43" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -24,10 +24,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Omar</author>
+    <author>Eduardo</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -585,16 +585,32 @@
   </si>
   <si>
     <t xml:space="preserve">Vales de despensa  </t>
+  </si>
+  <si>
+    <t>Régimen Fiscal</t>
+  </si>
+  <si>
+    <t>Código P.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>328/004</t>
+  </si>
+  <si>
+    <t>Vales de despensa d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="\ #,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -662,7 +678,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,12 +705,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFDCDCDC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF5F5F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -923,13 +957,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -952,16 +1021,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
@@ -972,9 +1037,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
@@ -985,13 +1047,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1000,22 +1083,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1323,13 +1406,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AB77"/>
+  <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D37" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,166 +1422,182 @@
     <col min="3" max="3" width="35.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="39" customWidth="1"/>
-    <col min="13" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="25" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="25" width="9.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.7109375" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="31" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" style="37" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="36" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="24" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" customWidth="1"/>
+    <col min="24" max="24" width="24.28515625" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" customWidth="1"/>
+    <col min="31" max="32" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:32" s="37" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="49"/>
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="L1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="O1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="47" t="s">
+      <c r="P1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="48"/>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="51"/>
+      <c r="R1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="47" t="s">
+      <c r="S1" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="47" t="s">
+      <c r="T1" s="51"/>
+      <c r="U1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="27" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="Y1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="47" t="s">
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="47" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="44" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AF1" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="25"/>
       <c r="I2" s="18"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="P2" s="17"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
       <c r="T2" s="17"/>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U2" s="17"/>
+      <c r="V2" s="26"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="18"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="P3" s="17"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
-      <c r="U3" s="28"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U3" s="17"/>
+      <c r="V3" s="26"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="18"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="P4" s="17"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="28"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U4" s="17"/>
+      <c r="V4" s="26"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -1508,18 +1607,18 @@
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="18"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="P5" s="17"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V5" s="17"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1529,18 +1628,18 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="18"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="P6" s="17"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V6" s="17"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -1550,18 +1649,18 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="18"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="P7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V7" s="17"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1571,18 +1670,18 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="18"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="P8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V8" s="17"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -1592,18 +1691,18 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="18"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="P9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V9" s="17"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1613,18 +1712,18 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="P10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
       <c r="U10" s="17"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V10" s="17"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1634,18 +1733,18 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="18"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="P11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V11" s="17"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1655,18 +1754,18 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="18"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="P12" s="17"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V12" s="17"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1676,18 +1775,18 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="P13" s="17"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
       <c r="T13" s="17"/>
       <c r="U13" s="17"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V13" s="17"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1697,18 +1796,18 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="18"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="P14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V14" s="17"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1718,18 +1817,18 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="18"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="P15" s="17"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
       <c r="U15" s="17"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V15" s="17"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1739,273 +1838,296 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="18"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="P16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
       <c r="T16" s="17"/>
       <c r="U16" s="17"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="V16" s="17"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="17"/>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
       <c r="Q19" s="17"/>
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
       <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="17"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="P20" s="17"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
       <c r="Q20" s="17"/>
       <c r="R20" s="17"/>
       <c r="S20" s="17"/>
       <c r="T20" s="17"/>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="17"/>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="Q21" s="17"/>
       <c r="R21" s="17"/>
       <c r="S21" s="17"/>
       <c r="T21" s="17"/>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="17"/>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
       <c r="Q22" s="17"/>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17"/>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="17"/>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
       <c r="Q23" s="17"/>
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17"/>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="17"/>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
       <c r="Q24" s="17"/>
       <c r="R24" s="17"/>
       <c r="S24" s="17"/>
       <c r="T24" s="17"/>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="17"/>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="17"/>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="17"/>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="17"/>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="17"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P30" s="17"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P31" s="17"/>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="P32" s="17"/>
-    </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P36" s="17"/>
-    </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P37" s="17"/>
-    </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P38" s="17"/>
-    </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P39" s="17"/>
-    </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P40" s="17"/>
-    </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P41" s="17"/>
-    </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P42" s="17"/>
-    </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P43" s="17"/>
-    </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P44" s="17"/>
-    </row>
-    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P45" s="17"/>
-    </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P46" s="17"/>
-    </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P47" s="17"/>
-    </row>
-    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P48" s="17"/>
-    </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P49" s="17"/>
-    </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P50" s="17"/>
-    </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P51" s="17"/>
-    </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P52" s="17"/>
-    </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P53" s="17"/>
-    </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P54" s="17"/>
-    </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P55" s="17"/>
-    </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P56" s="17"/>
-    </row>
-    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P57" s="17"/>
-    </row>
-    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P58" s="17"/>
-    </row>
-    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P59" s="17"/>
-    </row>
-    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P60" s="17"/>
-    </row>
-    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P61" s="17"/>
-    </row>
-    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P62" s="17"/>
-    </row>
-    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P63" s="17"/>
-    </row>
-    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P64" s="17"/>
-    </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P65" s="17"/>
-    </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P66" s="17"/>
-    </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P67" s="17"/>
-    </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P68" s="17"/>
-    </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P69" s="17"/>
-    </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P70" s="17"/>
-    </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P71" s="17"/>
-    </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P72" s="17"/>
-    </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P73" s="17"/>
-    </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P74" s="17"/>
-    </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P75" s="17"/>
-    </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P76" s="17"/>
-    </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P77" s="17"/>
+      <c r="U24" s="17"/>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="N26" s="37"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q30" s="17"/>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q31" s="17"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q52" s="17"/>
+    </row>
+    <row r="53" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q53" s="17"/>
+    </row>
+    <row r="54" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q54" s="17"/>
+    </row>
+    <row r="55" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q55" s="17"/>
+    </row>
+    <row r="56" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q56" s="17"/>
+    </row>
+    <row r="57" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q57" s="17"/>
+    </row>
+    <row r="58" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q58" s="17"/>
+    </row>
+    <row r="59" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q59" s="17"/>
+    </row>
+    <row r="60" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q60" s="17"/>
+    </row>
+    <row r="61" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q61" s="17"/>
+    </row>
+    <row r="62" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q62" s="17"/>
+    </row>
+    <row r="63" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q63" s="17"/>
+    </row>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q64" s="17"/>
+    </row>
+    <row r="65" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q65" s="17"/>
+    </row>
+    <row r="66" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q66" s="17"/>
+    </row>
+    <row r="67" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q67" s="17"/>
+    </row>
+    <row r="68" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q68" s="17"/>
+    </row>
+    <row r="69" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q69" s="17"/>
+    </row>
+    <row r="70" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q70" s="17"/>
+    </row>
+    <row r="71" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q71" s="17"/>
+    </row>
+    <row r="72" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q72" s="17"/>
+    </row>
+    <row r="73" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q73" s="17"/>
+    </row>
+    <row r="74" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q74" s="17"/>
+    </row>
+    <row r="75" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q75" s="17"/>
+    </row>
+    <row r="76" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q76" s="17"/>
+    </row>
+    <row r="77" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="J1"/>
-    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="AC1:AD1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="S1:T1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -2030,11 +2152,11 @@
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="6" style="32" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" style="30" bestFit="1" customWidth="1"/>
     <col min="16" max="22" width="9.140625" customWidth="1"/>
     <col min="48" max="48" width="18.140625" customWidth="1"/>
     <col min="50" max="50" width="17" customWidth="1"/>
-    <col min="51" max="51" width="9.140625" style="25"/>
+    <col min="51" max="51" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
@@ -2060,7 +2182,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
-      <c r="O1" s="33"/>
+      <c r="O1" s="31"/>
       <c r="P1" s="8"/>
       <c r="Q1" s="9" t="s">
         <v>27</v>
@@ -2128,74 +2250,74 @@
       <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="51"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="52" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="53"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="52" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="53"/>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="51"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="55"/>
       <c r="Q2" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="53"/>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="51"/>
+      <c r="X2" s="55"/>
       <c r="Y2" s="52" t="s">
         <v>46</v>
       </c>
       <c r="Z2" s="53"/>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="51"/>
+      <c r="AB2" s="55"/>
       <c r="AC2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="AD2" s="53"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="51"/>
+      <c r="AF2" s="55"/>
       <c r="AG2" s="52" t="s">
         <v>49</v>
       </c>
       <c r="AH2" s="53"/>
-      <c r="AI2" s="50" t="s">
+      <c r="AI2" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="51"/>
+      <c r="AJ2" s="55"/>
       <c r="AK2" s="52" t="s">
         <v>51</v>
       </c>
       <c r="AL2" s="53"/>
-      <c r="AM2" s="50" t="s">
+      <c r="AM2" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="51"/>
+      <c r="AN2" s="55"/>
       <c r="AO2" s="52" t="s">
         <v>53</v>
       </c>
@@ -2204,18 +2326,18 @@
         <v>95</v>
       </c>
       <c r="AR2" s="53"/>
-      <c r="AS2" s="50" t="s">
+      <c r="AS2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" s="51"/>
+      <c r="AT2" s="55"/>
       <c r="AU2" s="52" t="s">
         <v>55</v>
       </c>
       <c r="AV2" s="53"/>
-      <c r="AW2" s="50" t="s">
+      <c r="AW2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="AX2" s="51"/>
+      <c r="AX2" s="55"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -2260,7 +2382,7 @@
       <c r="N3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="32" t="s">
         <v>60</v>
       </c>
       <c r="P3" s="4" t="s">
@@ -2369,1413 +2491,1413 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-      <c r="AS4" s="31"/>
-      <c r="AT4" s="31"/>
-      <c r="AU4" s="22"/>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="29"/>
-      <c r="AX4" s="29"/>
-      <c r="AY4" s="29"/>
-    </row>
-    <row r="5" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-      <c r="AS5" s="31"/>
-      <c r="AT5" s="31"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-    </row>
-    <row r="6" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-      <c r="AS6" s="31"/>
-      <c r="AT6" s="31"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="29"/>
-      <c r="AW6" s="29"/>
-      <c r="AX6" s="29"/>
-      <c r="AY6" s="29"/>
-    </row>
-    <row r="7" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="31"/>
-      <c r="AT7" s="31"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="29"/>
-      <c r="AW7" s="29"/>
-      <c r="AX7" s="29"/>
-      <c r="AY7" s="29"/>
-    </row>
-    <row r="8" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29"/>
-      <c r="AD8" s="29"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="29"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="29"/>
-      <c r="AU8" s="30"/>
-      <c r="AY8" s="25"/>
-    </row>
-    <row r="9" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="K9" s="45"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AI9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AQ9" s="24"/>
-      <c r="AU9" s="30"/>
-      <c r="AY9" s="25"/>
-    </row>
-    <row r="10" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="K10" s="45"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AI10" s="23"/>
-      <c r="AK10" s="23"/>
-      <c r="AQ10" s="24"/>
-      <c r="AU10" s="30"/>
-      <c r="AY10" s="25"/>
-    </row>
-    <row r="11" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="K11" s="45"/>
-      <c r="O11" s="35"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AI11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AQ11" s="24"/>
-      <c r="AY11" s="25"/>
-    </row>
-    <row r="12" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="K12" s="45"/>
-      <c r="O12" s="35"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AI12" s="23"/>
-      <c r="AK12" s="23"/>
-      <c r="AQ12" s="24"/>
-      <c r="AY12" s="25"/>
-    </row>
-    <row r="13" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="K13" s="45"/>
-      <c r="O13" s="35"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AI13" s="23"/>
-      <c r="AK13" s="23"/>
-      <c r="AQ13" s="24"/>
-      <c r="AY13" s="25"/>
-    </row>
-    <row r="14" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="K14" s="45"/>
-      <c r="O14" s="35"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="24"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AI14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AQ14" s="24"/>
-      <c r="AY14" s="25"/>
-    </row>
-    <row r="15" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="K15" s="45"/>
-      <c r="O15" s="35"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AI15" s="23"/>
-      <c r="AK15" s="23"/>
-      <c r="AQ15" s="24"/>
-      <c r="AY15" s="25"/>
-    </row>
-    <row r="16" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="K16" s="45"/>
-      <c r="O16" s="35"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="24"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AI16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AQ16" s="24"/>
-      <c r="AY16" s="25"/>
-    </row>
-    <row r="17" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="K17" s="45"/>
-      <c r="O17" s="35"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="AE17" s="23"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AI17" s="23"/>
-      <c r="AK17" s="23"/>
-      <c r="AQ17" s="24"/>
-      <c r="AY17" s="25"/>
-    </row>
-    <row r="18" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="K18" s="45"/>
-      <c r="O18" s="35"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AI18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AQ18" s="24"/>
-      <c r="AY18" s="25"/>
-    </row>
-    <row r="19" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="K19" s="45"/>
-      <c r="O19" s="35"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="24"/>
-      <c r="X19" s="24"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AI19" s="23"/>
-      <c r="AK19" s="23"/>
-      <c r="AQ19" s="24"/>
-      <c r="AY19" s="25"/>
-    </row>
-    <row r="20" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O20" s="32"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="AY20" s="25"/>
-    </row>
-    <row r="21" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O21" s="32"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="AY21" s="25"/>
-    </row>
-    <row r="22" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O22" s="32"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="AY22" s="25"/>
-    </row>
-    <row r="23" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O23" s="32"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="AY23" s="25"/>
-    </row>
-    <row r="24" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O24" s="32"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="AY24" s="25"/>
-    </row>
-    <row r="25" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O25" s="32"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="AY25" s="25"/>
-    </row>
-    <row r="26" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O26" s="32"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="AY26" s="25"/>
-    </row>
-    <row r="27" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O27" s="32"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="AY27" s="25"/>
-    </row>
-    <row r="28" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O28" s="32"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="AY28" s="25"/>
-    </row>
-    <row r="29" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O29" s="32"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="AY29" s="25"/>
-    </row>
-    <row r="30" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O30" s="32"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="AY30" s="25"/>
-    </row>
-    <row r="31" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O31" s="32"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="AY31" s="25"/>
-    </row>
-    <row r="32" spans="1:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O32" s="32"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="AY32" s="25"/>
-    </row>
-    <row r="33" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O33" s="32"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="AY33" s="25"/>
-    </row>
-    <row r="34" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O34" s="32"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="AY34" s="25"/>
-    </row>
-    <row r="35" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O35" s="32"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="AY35" s="25"/>
-    </row>
-    <row r="36" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O36" s="32"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="AY36" s="25"/>
-    </row>
-    <row r="37" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O37" s="32"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="AY37" s="25"/>
-    </row>
-    <row r="38" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="32"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="AY38" s="25"/>
-    </row>
-    <row r="39" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O39" s="32"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="AY39" s="25"/>
-    </row>
-    <row r="40" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O40" s="32"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="AY40" s="25"/>
-    </row>
-    <row r="41" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O41" s="32"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="AY41" s="25"/>
-    </row>
-    <row r="42" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O42" s="32"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="AY42" s="25"/>
-    </row>
-    <row r="43" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O43" s="32"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="AY43" s="25"/>
-    </row>
-    <row r="44" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O44" s="32"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="AY44" s="25"/>
-    </row>
-    <row r="45" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O45" s="32"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="AY45" s="25"/>
-    </row>
-    <row r="46" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O46" s="32"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="AY46" s="25"/>
-    </row>
-    <row r="47" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O47" s="32"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="AY47" s="25"/>
-    </row>
-    <row r="48" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O48" s="32"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="AY48" s="25"/>
-    </row>
-    <row r="49" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O49" s="32"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="AY49" s="25"/>
-    </row>
-    <row r="50" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O50" s="32"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="AY50" s="25"/>
-    </row>
-    <row r="51" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O51" s="32"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="AY51" s="25"/>
-    </row>
-    <row r="52" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O52" s="32"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="AY52" s="25"/>
-    </row>
-    <row r="53" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O53" s="32"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="AY53" s="25"/>
-    </row>
-    <row r="54" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O54" s="32"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="AY54" s="25"/>
-    </row>
-    <row r="55" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O55" s="32"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="AY55" s="25"/>
-    </row>
-    <row r="56" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O56" s="32"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="AY56" s="25"/>
-    </row>
-    <row r="57" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O57" s="32"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="AY57" s="25"/>
-    </row>
-    <row r="58" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O58" s="32"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="AY58" s="25"/>
-    </row>
-    <row r="59" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O59" s="32"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="AY59" s="25"/>
-    </row>
-    <row r="60" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O60" s="32"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="AY60" s="25"/>
-    </row>
-    <row r="61" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O61" s="32"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="AY61" s="25"/>
-    </row>
-    <row r="62" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O62" s="32"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="AY62" s="25"/>
-    </row>
-    <row r="63" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O63" s="32"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="AY63" s="25"/>
-    </row>
-    <row r="64" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O64" s="32"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="AY64" s="25"/>
-    </row>
-    <row r="65" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O65" s="32"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="AY65" s="25"/>
-    </row>
-    <row r="66" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O66" s="32"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="AY66" s="25"/>
-    </row>
-    <row r="67" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O67" s="32"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="AY67" s="25"/>
-    </row>
-    <row r="68" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O68" s="32"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31"/>
-      <c r="AY68" s="25"/>
-    </row>
-    <row r="69" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O69" s="32"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31"/>
-      <c r="AY69" s="25"/>
-    </row>
-    <row r="70" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O70" s="32"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31"/>
-      <c r="AY70" s="25"/>
-    </row>
-    <row r="71" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O71" s="32"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="AY71" s="25"/>
-    </row>
-    <row r="72" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O72" s="32"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="AY72" s="25"/>
-    </row>
-    <row r="73" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O73" s="32"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="AY73" s="25"/>
-    </row>
-    <row r="74" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O74" s="32"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="AY74" s="25"/>
-    </row>
-    <row r="75" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O75" s="32"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="AY75" s="25"/>
-    </row>
-    <row r="76" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O76" s="32"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="AY76" s="25"/>
-    </row>
-    <row r="77" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O77" s="32"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="AY77" s="25"/>
-    </row>
-    <row r="78" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O78" s="32"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="AY78" s="25"/>
-    </row>
-    <row r="79" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O79" s="32"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31"/>
-      <c r="AY79" s="25"/>
-    </row>
-    <row r="80" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O80" s="32"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
-      <c r="V80" s="31"/>
-      <c r="AY80" s="25"/>
-    </row>
-    <row r="81" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O81" s="32"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="31"/>
-      <c r="AY81" s="25"/>
-    </row>
-    <row r="82" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O82" s="32"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="AY82" s="25"/>
-    </row>
-    <row r="83" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O83" s="32"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="31"/>
-      <c r="V83" s="31"/>
-      <c r="AY83" s="25"/>
-    </row>
-    <row r="84" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O84" s="32"/>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="31"/>
-      <c r="AY84" s="25"/>
-    </row>
-    <row r="85" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O85" s="32"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="31"/>
-      <c r="V85" s="31"/>
-      <c r="AY85" s="25"/>
-    </row>
-    <row r="86" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O86" s="32"/>
-      <c r="S86" s="31"/>
-      <c r="T86" s="31"/>
-      <c r="U86" s="31"/>
-      <c r="V86" s="31"/>
-      <c r="AY86" s="25"/>
-    </row>
-    <row r="87" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O87" s="32"/>
-      <c r="S87" s="31"/>
-      <c r="T87" s="31"/>
-      <c r="U87" s="31"/>
-      <c r="V87" s="31"/>
-      <c r="AY87" s="25"/>
-    </row>
-    <row r="88" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O88" s="32"/>
-      <c r="S88" s="31"/>
-      <c r="T88" s="31"/>
-      <c r="U88" s="31"/>
-      <c r="V88" s="31"/>
-      <c r="AY88" s="25"/>
-    </row>
-    <row r="89" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O89" s="32"/>
-      <c r="S89" s="31"/>
-      <c r="T89" s="31"/>
-      <c r="U89" s="31"/>
-      <c r="V89" s="31"/>
-      <c r="AY89" s="25"/>
-    </row>
-    <row r="90" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O90" s="32"/>
-      <c r="S90" s="31"/>
-      <c r="T90" s="31"/>
-      <c r="U90" s="31"/>
-      <c r="V90" s="31"/>
-      <c r="AY90" s="25"/>
-    </row>
-    <row r="91" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O91" s="32"/>
-      <c r="S91" s="31"/>
-      <c r="T91" s="31"/>
-      <c r="U91" s="31"/>
-      <c r="V91" s="31"/>
-      <c r="AY91" s="25"/>
-    </row>
-    <row r="92" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O92" s="32"/>
-      <c r="S92" s="31"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
-      <c r="V92" s="31"/>
-      <c r="AY92" s="25"/>
-    </row>
-    <row r="93" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O93" s="32"/>
-      <c r="S93" s="31"/>
-      <c r="T93" s="31"/>
-      <c r="U93" s="31"/>
-      <c r="V93" s="31"/>
-      <c r="AY93" s="25"/>
-    </row>
-    <row r="94" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O94" s="32"/>
-      <c r="S94" s="31"/>
-      <c r="T94" s="31"/>
-      <c r="U94" s="31"/>
-      <c r="V94" s="31"/>
-      <c r="AY94" s="25"/>
-    </row>
-    <row r="95" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O95" s="32"/>
-      <c r="S95" s="31"/>
-      <c r="T95" s="31"/>
-      <c r="U95" s="31"/>
-      <c r="V95" s="31"/>
-      <c r="AY95" s="25"/>
-    </row>
-    <row r="96" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O96" s="32"/>
-      <c r="S96" s="31"/>
-      <c r="T96" s="31"/>
-      <c r="U96" s="31"/>
-      <c r="V96" s="31"/>
-      <c r="AY96" s="25"/>
-    </row>
-    <row r="97" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O97" s="32"/>
-      <c r="S97" s="31"/>
-      <c r="T97" s="31"/>
-      <c r="U97" s="31"/>
-      <c r="V97" s="31"/>
-      <c r="AY97" s="25"/>
-    </row>
-    <row r="98" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O98" s="32"/>
-      <c r="S98" s="31"/>
-      <c r="T98" s="31"/>
-      <c r="U98" s="31"/>
-      <c r="V98" s="31"/>
-      <c r="AY98" s="25"/>
-    </row>
-    <row r="99" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O99" s="32"/>
-      <c r="S99" s="31"/>
-      <c r="T99" s="31"/>
-      <c r="U99" s="31"/>
-      <c r="V99" s="31"/>
-      <c r="AY99" s="25"/>
-    </row>
-    <row r="100" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O100" s="32"/>
-      <c r="S100" s="31"/>
-      <c r="T100" s="31"/>
-      <c r="U100" s="31"/>
-      <c r="V100" s="31"/>
-      <c r="AY100" s="25"/>
-    </row>
-    <row r="101" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O101" s="32"/>
-      <c r="S101" s="31"/>
-      <c r="T101" s="31"/>
-      <c r="U101" s="31"/>
-      <c r="V101" s="31"/>
-      <c r="AY101" s="25"/>
-    </row>
-    <row r="102" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O102" s="32"/>
-      <c r="S102" s="31"/>
-      <c r="T102" s="31"/>
-      <c r="U102" s="31"/>
-      <c r="V102" s="31"/>
-      <c r="AY102" s="25"/>
-    </row>
-    <row r="103" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O103" s="32"/>
-      <c r="S103" s="31"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="31"/>
-      <c r="AY103" s="25"/>
-    </row>
-    <row r="104" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O104" s="32"/>
-      <c r="S104" s="31"/>
-      <c r="T104" s="31"/>
-      <c r="U104" s="31"/>
-      <c r="V104" s="31"/>
-      <c r="AY104" s="25"/>
-    </row>
-    <row r="105" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O105" s="32"/>
-      <c r="S105" s="31"/>
-      <c r="T105" s="31"/>
-      <c r="U105" s="31"/>
-      <c r="V105" s="31"/>
-      <c r="AY105" s="25"/>
-    </row>
-    <row r="106" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O106" s="32"/>
-      <c r="S106" s="31"/>
-      <c r="T106" s="31"/>
-      <c r="U106" s="31"/>
-      <c r="V106" s="31"/>
-      <c r="AY106" s="25"/>
-    </row>
-    <row r="107" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O107" s="32"/>
-      <c r="S107" s="31"/>
-      <c r="T107" s="31"/>
-      <c r="U107" s="31"/>
-      <c r="V107" s="31"/>
-      <c r="AY107" s="25"/>
-    </row>
-    <row r="108" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O108" s="32"/>
-      <c r="S108" s="31"/>
-      <c r="T108" s="31"/>
-      <c r="U108" s="31"/>
-      <c r="V108" s="31"/>
-      <c r="AY108" s="25"/>
-    </row>
-    <row r="109" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O109" s="32"/>
-      <c r="S109" s="31"/>
-      <c r="T109" s="31"/>
-      <c r="U109" s="31"/>
-      <c r="V109" s="31"/>
-      <c r="AY109" s="25"/>
-    </row>
-    <row r="110" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O110" s="32"/>
-      <c r="S110" s="31"/>
-      <c r="T110" s="31"/>
-      <c r="U110" s="31"/>
-      <c r="V110" s="31"/>
-      <c r="AY110" s="25"/>
-    </row>
-    <row r="111" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O111" s="32"/>
-      <c r="S111" s="31"/>
-      <c r="T111" s="31"/>
-      <c r="U111" s="31"/>
-      <c r="V111" s="31"/>
-      <c r="AY111" s="25"/>
-    </row>
-    <row r="112" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O112" s="32"/>
-      <c r="S112" s="31"/>
-      <c r="T112" s="31"/>
-      <c r="U112" s="31"/>
-      <c r="V112" s="31"/>
-      <c r="AY112" s="25"/>
-    </row>
-    <row r="113" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O113" s="32"/>
-      <c r="S113" s="31"/>
-      <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
-      <c r="V113" s="31"/>
-      <c r="AY113" s="25"/>
-    </row>
-    <row r="114" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O114" s="32"/>
-      <c r="S114" s="31"/>
-      <c r="T114" s="31"/>
-      <c r="U114" s="31"/>
-      <c r="V114" s="31"/>
-      <c r="AY114" s="25"/>
-    </row>
-    <row r="115" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O115" s="32"/>
-      <c r="S115" s="31"/>
-      <c r="T115" s="31"/>
-      <c r="U115" s="31"/>
-      <c r="V115" s="31"/>
-      <c r="AY115" s="25"/>
-    </row>
-    <row r="116" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O116" s="32"/>
-      <c r="S116" s="31"/>
-      <c r="T116" s="31"/>
-      <c r="U116" s="31"/>
-      <c r="V116" s="31"/>
-      <c r="AY116" s="25"/>
-    </row>
-    <row r="117" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O117" s="32"/>
-      <c r="AY117" s="25"/>
-    </row>
-    <row r="118" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O118" s="32"/>
-      <c r="AY118" s="25"/>
-    </row>
-    <row r="119" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O119" s="32"/>
-      <c r="AY119" s="25"/>
-    </row>
-    <row r="120" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O120" s="32"/>
-      <c r="AY120" s="25"/>
-    </row>
-    <row r="121" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O121" s="32"/>
-      <c r="AY121" s="25"/>
-    </row>
-    <row r="122" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O122" s="32"/>
-      <c r="AY122" s="25"/>
-    </row>
-    <row r="123" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O123" s="32"/>
-      <c r="AY123" s="25"/>
-    </row>
-    <row r="124" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O124" s="32"/>
-      <c r="AY124" s="25"/>
-    </row>
-    <row r="125" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O125" s="32"/>
-      <c r="AY125" s="25"/>
-    </row>
-    <row r="126" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O126" s="32"/>
-      <c r="AY126" s="25"/>
-    </row>
-    <row r="127" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O127" s="32"/>
-      <c r="AY127" s="25"/>
-    </row>
-    <row r="128" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O128" s="32"/>
-      <c r="AY128" s="25"/>
-    </row>
-    <row r="129" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O129" s="32"/>
-      <c r="AY129" s="25"/>
-    </row>
-    <row r="130" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O130" s="32"/>
-      <c r="AY130" s="25"/>
-    </row>
-    <row r="131" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O131" s="32"/>
-      <c r="AY131" s="25"/>
-    </row>
-    <row r="132" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O132" s="32"/>
-      <c r="AY132" s="25"/>
-    </row>
-    <row r="133" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O133" s="32"/>
-      <c r="AY133" s="25"/>
-    </row>
-    <row r="134" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O134" s="32"/>
-      <c r="AY134" s="25"/>
-    </row>
-    <row r="135" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O135" s="32"/>
-      <c r="AY135" s="25"/>
-    </row>
-    <row r="136" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O136" s="32"/>
-      <c r="AY136" s="25"/>
-    </row>
-    <row r="137" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O137" s="32"/>
-      <c r="AY137" s="25"/>
-    </row>
-    <row r="138" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O138" s="32"/>
-      <c r="AY138" s="25"/>
-    </row>
-    <row r="139" spans="15:51" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O139" s="32"/>
-      <c r="AY139" s="25"/>
+    <row r="4" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="27"/>
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+    </row>
+    <row r="5" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29"/>
+      <c r="AM5" s="29"/>
+      <c r="AN5" s="29"/>
+      <c r="AO5" s="29"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="29"/>
+      <c r="AT5" s="29"/>
+      <c r="AU5" s="21"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+    </row>
+    <row r="6" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="29"/>
+      <c r="AM6" s="29"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="29"/>
+      <c r="AR6" s="29"/>
+      <c r="AS6" s="29"/>
+      <c r="AT6" s="29"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27"/>
+      <c r="AY6" s="27"/>
+    </row>
+    <row r="7" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="29"/>
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="29"/>
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="29"/>
+      <c r="AT7" s="29"/>
+      <c r="AU7" s="21"/>
+      <c r="AV7" s="27"/>
+      <c r="AW7" s="27"/>
+      <c r="AX7" s="27"/>
+      <c r="AY7" s="27"/>
+    </row>
+    <row r="8" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="29"/>
+      <c r="AR8" s="27"/>
+      <c r="AU8" s="28"/>
+      <c r="AY8" s="24"/>
+    </row>
+    <row r="9" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="K9" s="42"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AI9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AQ9" s="23"/>
+      <c r="AU9" s="28"/>
+      <c r="AY9" s="24"/>
+    </row>
+    <row r="10" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="K10" s="42"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AI10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AQ10" s="23"/>
+      <c r="AU10" s="28"/>
+      <c r="AY10" s="24"/>
+    </row>
+    <row r="11" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="K11" s="42"/>
+      <c r="O11" s="33"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AI11" s="22"/>
+      <c r="AK11" s="22"/>
+      <c r="AQ11" s="23"/>
+      <c r="AY11" s="24"/>
+    </row>
+    <row r="12" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="K12" s="42"/>
+      <c r="O12" s="33"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AI12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AQ12" s="23"/>
+      <c r="AY12" s="24"/>
+    </row>
+    <row r="13" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="K13" s="42"/>
+      <c r="O13" s="33"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AI13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AQ13" s="23"/>
+      <c r="AY13" s="24"/>
+    </row>
+    <row r="14" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="K14" s="42"/>
+      <c r="O14" s="33"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AI14" s="22"/>
+      <c r="AK14" s="22"/>
+      <c r="AQ14" s="23"/>
+      <c r="AY14" s="24"/>
+    </row>
+    <row r="15" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="K15" s="42"/>
+      <c r="O15" s="33"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AI15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AQ15" s="23"/>
+      <c r="AY15" s="24"/>
+    </row>
+    <row r="16" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="K16" s="42"/>
+      <c r="O16" s="33"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AI16" s="22"/>
+      <c r="AK16" s="22"/>
+      <c r="AQ16" s="23"/>
+      <c r="AY16" s="24"/>
+    </row>
+    <row r="17" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="K17" s="42"/>
+      <c r="O17" s="33"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AI17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AQ17" s="23"/>
+      <c r="AY17" s="24"/>
+    </row>
+    <row r="18" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="K18" s="42"/>
+      <c r="O18" s="33"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AI18" s="22"/>
+      <c r="AK18" s="22"/>
+      <c r="AQ18" s="23"/>
+      <c r="AY18" s="24"/>
+    </row>
+    <row r="19" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="K19" s="42"/>
+      <c r="O19" s="33"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AI19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AQ19" s="23"/>
+      <c r="AY19" s="24"/>
+    </row>
+    <row r="20" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="30"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="AY20" s="24"/>
+    </row>
+    <row r="21" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O21" s="30"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="AY21" s="24"/>
+    </row>
+    <row r="22" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="30"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="AY22" s="24"/>
+    </row>
+    <row r="23" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="30"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="AY23" s="24"/>
+    </row>
+    <row r="24" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O24" s="30"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="AY24" s="24"/>
+    </row>
+    <row r="25" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="30"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="AY25" s="24"/>
+    </row>
+    <row r="26" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O26" s="30"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="AY26" s="24"/>
+    </row>
+    <row r="27" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="30"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="AY27" s="24"/>
+    </row>
+    <row r="28" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O28" s="30"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="AY28" s="24"/>
+    </row>
+    <row r="29" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="30"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="AY29" s="24"/>
+    </row>
+    <row r="30" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O30" s="30"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="AY30" s="24"/>
+    </row>
+    <row r="31" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O31" s="30"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="AY31" s="24"/>
+    </row>
+    <row r="32" spans="1:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O32" s="30"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="AY32" s="24"/>
+    </row>
+    <row r="33" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O33" s="30"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="AY33" s="24"/>
+    </row>
+    <row r="34" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O34" s="30"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="AY34" s="24"/>
+    </row>
+    <row r="35" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O35" s="30"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="AY35" s="24"/>
+    </row>
+    <row r="36" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O36" s="30"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="AY36" s="24"/>
+    </row>
+    <row r="37" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O37" s="30"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="AY37" s="24"/>
+    </row>
+    <row r="38" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O38" s="30"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="AY38" s="24"/>
+    </row>
+    <row r="39" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O39" s="30"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="AY39" s="24"/>
+    </row>
+    <row r="40" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O40" s="30"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="AY40" s="24"/>
+    </row>
+    <row r="41" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O41" s="30"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="AY41" s="24"/>
+    </row>
+    <row r="42" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O42" s="30"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="AY42" s="24"/>
+    </row>
+    <row r="43" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O43" s="30"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="AY43" s="24"/>
+    </row>
+    <row r="44" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O44" s="30"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="AY44" s="24"/>
+    </row>
+    <row r="45" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O45" s="30"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="AY45" s="24"/>
+    </row>
+    <row r="46" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O46" s="30"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="AY46" s="24"/>
+    </row>
+    <row r="47" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O47" s="30"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="AY47" s="24"/>
+    </row>
+    <row r="48" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O48" s="30"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="AY48" s="24"/>
+    </row>
+    <row r="49" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O49" s="30"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="AY49" s="24"/>
+    </row>
+    <row r="50" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O50" s="30"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="AY50" s="24"/>
+    </row>
+    <row r="51" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O51" s="30"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="AY51" s="24"/>
+    </row>
+    <row r="52" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O52" s="30"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="AY52" s="24"/>
+    </row>
+    <row r="53" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O53" s="30"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="AY53" s="24"/>
+    </row>
+    <row r="54" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O54" s="30"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="AY54" s="24"/>
+    </row>
+    <row r="55" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O55" s="30"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="AY55" s="24"/>
+    </row>
+    <row r="56" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O56" s="30"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="AY56" s="24"/>
+    </row>
+    <row r="57" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O57" s="30"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="AY57" s="24"/>
+    </row>
+    <row r="58" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O58" s="30"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="AY58" s="24"/>
+    </row>
+    <row r="59" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O59" s="30"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="AY59" s="24"/>
+    </row>
+    <row r="60" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O60" s="30"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="AY60" s="24"/>
+    </row>
+    <row r="61" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O61" s="30"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="AY61" s="24"/>
+    </row>
+    <row r="62" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O62" s="30"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="AY62" s="24"/>
+    </row>
+    <row r="63" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O63" s="30"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="AY63" s="24"/>
+    </row>
+    <row r="64" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O64" s="30"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="AY64" s="24"/>
+    </row>
+    <row r="65" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O65" s="30"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="AY65" s="24"/>
+    </row>
+    <row r="66" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O66" s="30"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="AY66" s="24"/>
+    </row>
+    <row r="67" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O67" s="30"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="AY67" s="24"/>
+    </row>
+    <row r="68" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O68" s="30"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="AY68" s="24"/>
+    </row>
+    <row r="69" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O69" s="30"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="AY69" s="24"/>
+    </row>
+    <row r="70" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="30"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="AY70" s="24"/>
+    </row>
+    <row r="71" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O71" s="30"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="AY71" s="24"/>
+    </row>
+    <row r="72" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O72" s="30"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="AY72" s="24"/>
+    </row>
+    <row r="73" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O73" s="30"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="AY73" s="24"/>
+    </row>
+    <row r="74" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O74" s="30"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="AY74" s="24"/>
+    </row>
+    <row r="75" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O75" s="30"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="AY75" s="24"/>
+    </row>
+    <row r="76" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O76" s="30"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="AY76" s="24"/>
+    </row>
+    <row r="77" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O77" s="30"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="AY77" s="24"/>
+    </row>
+    <row r="78" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="30"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="AY78" s="24"/>
+    </row>
+    <row r="79" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O79" s="30"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="AY79" s="24"/>
+    </row>
+    <row r="80" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O80" s="30"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="AY80" s="24"/>
+    </row>
+    <row r="81" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="30"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="29"/>
+      <c r="AY81" s="24"/>
+    </row>
+    <row r="82" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O82" s="30"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="AY82" s="24"/>
+    </row>
+    <row r="83" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O83" s="30"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="AY83" s="24"/>
+    </row>
+    <row r="84" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O84" s="30"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="AY84" s="24"/>
+    </row>
+    <row r="85" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O85" s="30"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="AY85" s="24"/>
+    </row>
+    <row r="86" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O86" s="30"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="AY86" s="24"/>
+    </row>
+    <row r="87" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O87" s="30"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="AY87" s="24"/>
+    </row>
+    <row r="88" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O88" s="30"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="AY88" s="24"/>
+    </row>
+    <row r="89" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O89" s="30"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="AY89" s="24"/>
+    </row>
+    <row r="90" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O90" s="30"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="AY90" s="24"/>
+    </row>
+    <row r="91" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O91" s="30"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="AY91" s="24"/>
+    </row>
+    <row r="92" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O92" s="30"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="AY92" s="24"/>
+    </row>
+    <row r="93" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O93" s="30"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="AY93" s="24"/>
+    </row>
+    <row r="94" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O94" s="30"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="AY94" s="24"/>
+    </row>
+    <row r="95" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O95" s="30"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="AY95" s="24"/>
+    </row>
+    <row r="96" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O96" s="30"/>
+      <c r="S96" s="29"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="AY96" s="24"/>
+    </row>
+    <row r="97" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O97" s="30"/>
+      <c r="S97" s="29"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+      <c r="AY97" s="24"/>
+    </row>
+    <row r="98" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O98" s="30"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="AY98" s="24"/>
+    </row>
+    <row r="99" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O99" s="30"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="AY99" s="24"/>
+    </row>
+    <row r="100" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O100" s="30"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="AY100" s="24"/>
+    </row>
+    <row r="101" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O101" s="30"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+      <c r="AY101" s="24"/>
+    </row>
+    <row r="102" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O102" s="30"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+      <c r="V102" s="29"/>
+      <c r="AY102" s="24"/>
+    </row>
+    <row r="103" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O103" s="30"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="AY103" s="24"/>
+    </row>
+    <row r="104" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O104" s="30"/>
+      <c r="S104" s="29"/>
+      <c r="T104" s="29"/>
+      <c r="U104" s="29"/>
+      <c r="V104" s="29"/>
+      <c r="AY104" s="24"/>
+    </row>
+    <row r="105" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O105" s="30"/>
+      <c r="S105" s="29"/>
+      <c r="T105" s="29"/>
+      <c r="U105" s="29"/>
+      <c r="V105" s="29"/>
+      <c r="AY105" s="24"/>
+    </row>
+    <row r="106" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O106" s="30"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="AY106" s="24"/>
+    </row>
+    <row r="107" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O107" s="30"/>
+      <c r="S107" s="29"/>
+      <c r="T107" s="29"/>
+      <c r="U107" s="29"/>
+      <c r="V107" s="29"/>
+      <c r="AY107" s="24"/>
+    </row>
+    <row r="108" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O108" s="30"/>
+      <c r="S108" s="29"/>
+      <c r="T108" s="29"/>
+      <c r="U108" s="29"/>
+      <c r="V108" s="29"/>
+      <c r="AY108" s="24"/>
+    </row>
+    <row r="109" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O109" s="30"/>
+      <c r="S109" s="29"/>
+      <c r="T109" s="29"/>
+      <c r="U109" s="29"/>
+      <c r="V109" s="29"/>
+      <c r="AY109" s="24"/>
+    </row>
+    <row r="110" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O110" s="30"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="AY110" s="24"/>
+    </row>
+    <row r="111" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O111" s="30"/>
+      <c r="S111" s="29"/>
+      <c r="T111" s="29"/>
+      <c r="U111" s="29"/>
+      <c r="V111" s="29"/>
+      <c r="AY111" s="24"/>
+    </row>
+    <row r="112" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O112" s="30"/>
+      <c r="S112" s="29"/>
+      <c r="T112" s="29"/>
+      <c r="U112" s="29"/>
+      <c r="V112" s="29"/>
+      <c r="AY112" s="24"/>
+    </row>
+    <row r="113" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O113" s="30"/>
+      <c r="S113" s="29"/>
+      <c r="T113" s="29"/>
+      <c r="U113" s="29"/>
+      <c r="V113" s="29"/>
+      <c r="AY113" s="24"/>
+    </row>
+    <row r="114" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O114" s="30"/>
+      <c r="S114" s="29"/>
+      <c r="T114" s="29"/>
+      <c r="U114" s="29"/>
+      <c r="V114" s="29"/>
+      <c r="AY114" s="24"/>
+    </row>
+    <row r="115" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O115" s="30"/>
+      <c r="S115" s="29"/>
+      <c r="T115" s="29"/>
+      <c r="U115" s="29"/>
+      <c r="V115" s="29"/>
+      <c r="AY115" s="24"/>
+    </row>
+    <row r="116" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O116" s="30"/>
+      <c r="S116" s="29"/>
+      <c r="T116" s="29"/>
+      <c r="U116" s="29"/>
+      <c r="V116" s="29"/>
+      <c r="AY116" s="24"/>
+    </row>
+    <row r="117" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O117" s="30"/>
+      <c r="AY117" s="24"/>
+    </row>
+    <row r="118" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O118" s="30"/>
+      <c r="AY118" s="24"/>
+    </row>
+    <row r="119" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O119" s="30"/>
+      <c r="AY119" s="24"/>
+    </row>
+    <row r="120" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O120" s="30"/>
+      <c r="AY120" s="24"/>
+    </row>
+    <row r="121" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O121" s="30"/>
+      <c r="AY121" s="24"/>
+    </row>
+    <row r="122" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O122" s="30"/>
+      <c r="AY122" s="24"/>
+    </row>
+    <row r="123" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O123" s="30"/>
+      <c r="AY123" s="24"/>
+    </row>
+    <row r="124" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O124" s="30"/>
+      <c r="AY124" s="24"/>
+    </row>
+    <row r="125" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O125" s="30"/>
+      <c r="AY125" s="24"/>
+    </row>
+    <row r="126" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O126" s="30"/>
+      <c r="AY126" s="24"/>
+    </row>
+    <row r="127" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O127" s="30"/>
+      <c r="AY127" s="24"/>
+    </row>
+    <row r="128" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O128" s="30"/>
+      <c r="AY128" s="24"/>
+    </row>
+    <row r="129" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O129" s="30"/>
+      <c r="AY129" s="24"/>
+    </row>
+    <row r="130" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O130" s="30"/>
+      <c r="AY130" s="24"/>
+    </row>
+    <row r="131" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O131" s="30"/>
+      <c r="AY131" s="24"/>
+    </row>
+    <row r="132" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O132" s="30"/>
+      <c r="AY132" s="24"/>
+    </row>
+    <row r="133" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O133" s="30"/>
+      <c r="AY133" s="24"/>
+    </row>
+    <row r="134" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O134" s="30"/>
+      <c r="AY134" s="24"/>
+    </row>
+    <row r="135" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O135" s="30"/>
+      <c r="AY135" s="24"/>
+    </row>
+    <row r="136" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O136" s="30"/>
+      <c r="AY136" s="24"/>
+    </row>
+    <row r="137" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O137" s="30"/>
+      <c r="AY137" s="24"/>
+    </row>
+    <row r="138" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O138" s="30"/>
+      <c r="AY138" s="24"/>
+    </row>
+    <row r="139" spans="15:51" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="O139" s="30"/>
+      <c r="AY139" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
     <mergeCell ref="AO2:AP2"/>
     <mergeCell ref="AS2:AT2"/>
     <mergeCell ref="AU2:AV2"/>
     <mergeCell ref="AW2:AX2"/>
     <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:P2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3786,13 +3908,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="P93" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,11 +3937,12 @@
     <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.140625" style="40"/>
-    <col min="25" max="25" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.28515625" style="37" customWidth="1"/>
+    <col min="21" max="24" width="9.140625" style="37"/>
+    <col min="25" max="25" width="9.5703125" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="14" t="s">
         <v>62</v>
       </c>
@@ -3867,55 +3990,60 @@
       <c r="S1" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="T1"/>
+      <c r="T1" s="14" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="57" t="s">
+      <c r="F2" s="57"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="57" t="s">
+      <c r="R2" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="58" t="s">
         <v>90</v>
+      </c>
+      <c r="T2" s="63" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -3976,181 +4104,479 @@
       <c r="S3" s="13" t="s">
         <v>61</v>
       </c>
+      <c r="T3" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="37"/>
-      <c r="F4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="Y4" s="36"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="35"/>
+      <c r="F4" s="28"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="60"/>
+      <c r="Y4" s="34"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="Y5" s="36"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="T5" s="60"/>
+      <c r="Y5" s="34"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="Y6" s="36"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="T6" s="60"/>
+      <c r="Y6" s="34"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="Y7" s="36"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="T7" s="60"/>
+      <c r="Y7" s="34"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="Y8" s="36"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="T8" s="60"/>
+      <c r="Y8" s="34"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="Y9" s="36"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="T9" s="60"/>
+      <c r="Y9" s="34"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="Y10" s="36"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="T10" s="60"/>
+      <c r="Y10" s="34"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="Y11" s="36"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="T11" s="60"/>
+      <c r="Y11" s="34"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="Y12" s="36"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="T12" s="60"/>
+      <c r="Y12" s="34"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="Y13" s="36"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="T13" s="60"/>
+      <c r="Y13" s="34"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="Y14" s="36"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="T14" s="60"/>
+      <c r="Y14" s="34"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="Y15" s="36"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="T15" s="60"/>
+      <c r="Y15" s="34"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="Y16" s="36"/>
-    </row>
-    <row r="17" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y17" s="36"/>
-    </row>
-    <row r="18" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y18" s="36"/>
-    </row>
-    <row r="19" spans="25:25" x14ac:dyDescent="0.25">
-      <c r="Y19" s="36"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="T16" s="60"/>
+      <c r="Y16" s="34"/>
+    </row>
+    <row r="17" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T17" s="60"/>
+      <c r="Y17" s="34"/>
+    </row>
+    <row r="18" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T18" s="60"/>
+      <c r="Y18" s="34"/>
+    </row>
+    <row r="19" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T19" s="60"/>
+      <c r="Y19" s="34"/>
+    </row>
+    <row r="20" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T20" s="60"/>
+    </row>
+    <row r="21" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T21" s="60"/>
+    </row>
+    <row r="22" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T22" s="60"/>
+    </row>
+    <row r="23" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T23" s="60"/>
+    </row>
+    <row r="24" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T24" s="61"/>
+    </row>
+    <row r="25" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T25" s="60"/>
+    </row>
+    <row r="26" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T26" s="60"/>
+    </row>
+    <row r="27" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T27" s="60"/>
+    </row>
+    <row r="28" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T28" s="60"/>
+    </row>
+    <row r="29" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T29" s="60"/>
+    </row>
+    <row r="30" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T30" s="60"/>
+    </row>
+    <row r="31" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T31" s="60"/>
+    </row>
+    <row r="32" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T32" s="60"/>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T33" s="60"/>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" s="60"/>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" s="60"/>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T36" s="60"/>
+    </row>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T37" s="60"/>
+    </row>
+    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T38" s="60"/>
+    </row>
+    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T39" s="60"/>
+    </row>
+    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T40" s="60"/>
+    </row>
+    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T41" s="60"/>
+    </row>
+    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T42" s="60"/>
+    </row>
+    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T43" s="60"/>
+    </row>
+    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T44" s="60"/>
+    </row>
+    <row r="45" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T45" s="60"/>
+    </row>
+    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T46" s="60"/>
+    </row>
+    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T47" s="60"/>
+    </row>
+    <row r="48" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T48" s="60"/>
+    </row>
+    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T49" s="60"/>
+    </row>
+    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T50" s="60"/>
+    </row>
+    <row r="51" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T51" s="60"/>
+    </row>
+    <row r="52" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T52" s="60"/>
+    </row>
+    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T53" s="60"/>
+    </row>
+    <row r="54" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T54" s="60"/>
+    </row>
+    <row r="55" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T55" s="60"/>
+    </row>
+    <row r="56" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T56" s="60"/>
+    </row>
+    <row r="57" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T57" s="60"/>
+    </row>
+    <row r="58" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T58" s="60"/>
+    </row>
+    <row r="59" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T59" s="60"/>
+    </row>
+    <row r="60" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T60" s="60"/>
+    </row>
+    <row r="61" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T61" s="60"/>
+    </row>
+    <row r="62" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T62" s="60"/>
+    </row>
+    <row r="63" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T63" s="60"/>
+    </row>
+    <row r="64" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T64" s="60"/>
+    </row>
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T65" s="60"/>
+    </row>
+    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T66" s="60"/>
+    </row>
+    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T67" s="60"/>
+    </row>
+    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T68" s="60"/>
+    </row>
+    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T69" s="60"/>
+    </row>
+    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T70" s="60"/>
+    </row>
+    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T71" s="60"/>
+    </row>
+    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T72" s="60"/>
+    </row>
+    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T73" s="60"/>
+    </row>
+    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T74" s="60"/>
+    </row>
+    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T75" s="60"/>
+    </row>
+    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T76" s="60"/>
+    </row>
+    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T77" s="60"/>
+    </row>
+    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T78" s="60"/>
+    </row>
+    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T79" s="60"/>
+    </row>
+    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T80" s="60"/>
+    </row>
+    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T81" s="60"/>
+    </row>
+    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T82" s="62"/>
+    </row>
+    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T83" s="60"/>
+    </row>
+    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T84" s="60"/>
+    </row>
+    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T85" s="60"/>
+    </row>
+    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T86" s="60"/>
+    </row>
+    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T87" s="60"/>
+    </row>
+    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T88" s="60"/>
+    </row>
+    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T89" s="60"/>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T90" s="60"/>
+    </row>
+    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T91" s="60"/>
+    </row>
+    <row r="92" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T92" s="60"/>
+    </row>
+    <row r="93" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T93" s="60"/>
+    </row>
+    <row r="94" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T94" s="60"/>
+    </row>
+    <row r="95" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T95" s="60"/>
+    </row>
+    <row r="96" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T96" s="60"/>
+    </row>
+    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T97" s="60"/>
+    </row>
+    <row r="98" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T98" s="60"/>
+    </row>
+    <row r="99" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T99" s="60"/>
+    </row>
+    <row r="100" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T100" s="60"/>
+    </row>
+    <row r="101" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T101" s="60"/>
+    </row>
+    <row r="102" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T102" s="60"/>
+    </row>
+    <row r="103" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T103" s="60"/>
+    </row>
+    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T104" s="60"/>
+    </row>
+    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T105" s="60"/>
+    </row>
+    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T106" s="60"/>
+    </row>
+    <row r="107" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T107" s="60"/>
+    </row>
+    <row r="108" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T108" s="60"/>
+    </row>
+    <row r="109" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T109" s="60"/>
+    </row>
+    <row r="110" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T110" s="60"/>
+    </row>
+    <row r="111" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T111" s="60"/>
+    </row>
+    <row r="112" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T112" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="O2"/>
     <mergeCell ref="P2"/>
     <mergeCell ref="Q2"/>
     <mergeCell ref="R2"/>
     <mergeCell ref="S2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="C2"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -4175,7 +4601,7 @@
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4188,11 +4614,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="46" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="43" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4212,106 +4638,106 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
+++ b/OperadoraNominas/bin/Debug/Archivos/timbrado_logistic_s.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generales" sheetId="2" r:id="rId1"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
   <si>
     <t>No. Empleado</t>
   </si>
@@ -573,12 +573,6 @@
   </si>
   <si>
     <t>208/038</t>
-  </si>
-  <si>
-    <t>276/009</t>
-  </si>
-  <si>
-    <t>Reembolso infonavit</t>
   </si>
   <si>
     <t>277/029</t>
@@ -998,7 +992,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1044,9 +1038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,6 +1048,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1071,34 +1068,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1451,87 +1442,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="37" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="54"/>
+      <c r="U1" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="54"/>
+      <c r="W1" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF1" s="46" t="s">
         <v>101</v>
-      </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="51"/>
-      <c r="U1" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="47" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2245,99 +2236,99 @@
       </c>
       <c r="AV1" s="10"/>
       <c r="AW1" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="54" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="52" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54" t="s">
+      <c r="J2" s="58"/>
+      <c r="K2" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="52" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="54" t="s">
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="52" t="s">
+      <c r="X2" s="56"/>
+      <c r="Y2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="54" t="s">
+      <c r="Z2" s="58"/>
+      <c r="AA2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="52" t="s">
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="54" t="s">
+      <c r="AD2" s="58"/>
+      <c r="AE2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
+      <c r="AH2" s="58"/>
+      <c r="AI2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="52" t="s">
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="54" t="s">
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="52" t="s">
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="52" t="s">
+      <c r="AP2" s="58"/>
+      <c r="AQ2" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="54" t="s">
+      <c r="AR2" s="58"/>
+      <c r="AS2" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="52" t="s">
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="53"/>
-      <c r="AW2" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX2" s="55"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="AX2" s="56"/>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -3878,26 +3869,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AU2:AV2"/>
+    <mergeCell ref="AW2:AX2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="AU2:AV2"/>
-    <mergeCell ref="AW2:AX2"/>
-    <mergeCell ref="AQ2:AR2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3910,8 +3901,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:Y112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="P93" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="K93" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
@@ -3991,59 +3982,59 @@
         <v>76</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="59" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="T2" s="63" t="s">
-        <v>105</v>
+      <c r="T2" s="50" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -4122,7 +4113,7 @@
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
       <c r="S4" s="27"/>
-      <c r="T4" s="60"/>
+      <c r="T4" s="47"/>
       <c r="Y4" s="34"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -4134,7 +4125,7 @@
       <c r="K5" s="23"/>
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
-      <c r="T5" s="60"/>
+      <c r="T5" s="47"/>
       <c r="Y5" s="34"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -4146,7 +4137,7 @@
       <c r="K6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
-      <c r="T6" s="60"/>
+      <c r="T6" s="47"/>
       <c r="Y6" s="34"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -4158,7 +4149,7 @@
       <c r="K7" s="23"/>
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
-      <c r="T7" s="60"/>
+      <c r="T7" s="47"/>
       <c r="Y7" s="34"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -4170,7 +4161,7 @@
       <c r="K8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
-      <c r="T8" s="60"/>
+      <c r="T8" s="47"/>
       <c r="Y8" s="34"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -4182,7 +4173,7 @@
       <c r="K9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
-      <c r="T9" s="60"/>
+      <c r="T9" s="47"/>
       <c r="Y9" s="34"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -4194,7 +4185,7 @@
       <c r="K10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
-      <c r="T10" s="60"/>
+      <c r="T10" s="47"/>
       <c r="Y10" s="34"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -4206,7 +4197,7 @@
       <c r="K11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
-      <c r="T11" s="60"/>
+      <c r="T11" s="47"/>
       <c r="Y11" s="34"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -4218,7 +4209,7 @@
       <c r="K12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="T12" s="60"/>
+      <c r="T12" s="47"/>
       <c r="Y12" s="34"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -4230,7 +4221,7 @@
       <c r="K13" s="23"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
-      <c r="T13" s="60"/>
+      <c r="T13" s="47"/>
       <c r="Y13" s="34"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -4242,7 +4233,7 @@
       <c r="K14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
-      <c r="T14" s="60"/>
+      <c r="T14" s="47"/>
       <c r="Y14" s="34"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -4254,7 +4245,7 @@
       <c r="K15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
-      <c r="T15" s="60"/>
+      <c r="T15" s="47"/>
       <c r="Y15" s="34"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -4266,317 +4257,317 @@
       <c r="K16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
-      <c r="T16" s="60"/>
+      <c r="T16" s="47"/>
       <c r="Y16" s="34"/>
     </row>
     <row r="17" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T17" s="60"/>
+      <c r="T17" s="47"/>
       <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T18" s="60"/>
+      <c r="T18" s="47"/>
       <c r="Y18" s="34"/>
     </row>
     <row r="19" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T19" s="60"/>
+      <c r="T19" s="47"/>
       <c r="Y19" s="34"/>
     </row>
     <row r="20" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T20" s="60"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T21" s="60"/>
+      <c r="T21" s="47"/>
     </row>
     <row r="22" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T22" s="60"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T23" s="60"/>
+      <c r="T23" s="47"/>
     </row>
     <row r="24" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T24" s="61"/>
+      <c r="T24" s="48"/>
     </row>
     <row r="25" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T25" s="60"/>
+      <c r="T25" s="47"/>
     </row>
     <row r="26" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T26" s="60"/>
+      <c r="T26" s="47"/>
     </row>
     <row r="27" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T27" s="60"/>
+      <c r="T27" s="47"/>
     </row>
     <row r="28" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T28" s="60"/>
+      <c r="T28" s="47"/>
     </row>
     <row r="29" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T29" s="60"/>
+      <c r="T29" s="47"/>
     </row>
     <row r="30" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T30" s="60"/>
+      <c r="T30" s="47"/>
     </row>
     <row r="31" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T31" s="60"/>
+      <c r="T31" s="47"/>
     </row>
     <row r="32" spans="20:25" x14ac:dyDescent="0.25">
-      <c r="T32" s="60"/>
+      <c r="T32" s="47"/>
     </row>
     <row r="33" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T33" s="60"/>
+      <c r="T33" s="47"/>
     </row>
     <row r="34" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T34" s="60"/>
+      <c r="T34" s="47"/>
     </row>
     <row r="35" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T35" s="60"/>
+      <c r="T35" s="47"/>
     </row>
     <row r="36" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T36" s="60"/>
+      <c r="T36" s="47"/>
     </row>
     <row r="37" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T37" s="60"/>
+      <c r="T37" s="47"/>
     </row>
     <row r="38" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T38" s="60"/>
+      <c r="T38" s="47"/>
     </row>
     <row r="39" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T39" s="60"/>
+      <c r="T39" s="47"/>
     </row>
     <row r="40" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T40" s="60"/>
+      <c r="T40" s="47"/>
     </row>
     <row r="41" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T41" s="60"/>
+      <c r="T41" s="47"/>
     </row>
     <row r="42" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T42" s="60"/>
+      <c r="T42" s="47"/>
     </row>
     <row r="43" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T43" s="60"/>
+      <c r="T43" s="47"/>
     </row>
     <row r="44" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T44" s="60"/>
+      <c r="T44" s="47"/>
     </row>
     <row r="45" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T45" s="60"/>
+      <c r="T45" s="47"/>
     </row>
     <row r="46" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T46" s="60"/>
+      <c r="T46" s="47"/>
     </row>
     <row r="47" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T47" s="60"/>
+      <c r="T47" s="47"/>
     </row>
     <row r="48" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T48" s="60"/>
+      <c r="T48" s="47"/>
     </row>
     <row r="49" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T49" s="60"/>
+      <c r="T49" s="47"/>
     </row>
     <row r="50" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T50" s="60"/>
+      <c r="T50" s="47"/>
     </row>
     <row r="51" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T51" s="60"/>
+      <c r="T51" s="47"/>
     </row>
     <row r="52" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T52" s="60"/>
+      <c r="T52" s="47"/>
     </row>
     <row r="53" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T53" s="60"/>
+      <c r="T53" s="47"/>
     </row>
     <row r="54" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T54" s="60"/>
+      <c r="T54" s="47"/>
     </row>
     <row r="55" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T55" s="60"/>
+      <c r="T55" s="47"/>
     </row>
     <row r="56" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T56" s="60"/>
+      <c r="T56" s="47"/>
     </row>
     <row r="57" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T57" s="60"/>
+      <c r="T57" s="47"/>
     </row>
     <row r="58" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T58" s="60"/>
+      <c r="T58" s="47"/>
     </row>
     <row r="59" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T59" s="60"/>
+      <c r="T59" s="47"/>
     </row>
     <row r="60" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T60" s="60"/>
+      <c r="T60" s="47"/>
     </row>
     <row r="61" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T61" s="60"/>
+      <c r="T61" s="47"/>
     </row>
     <row r="62" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T62" s="60"/>
+      <c r="T62" s="47"/>
     </row>
     <row r="63" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T63" s="60"/>
+      <c r="T63" s="47"/>
     </row>
     <row r="64" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T64" s="60"/>
+      <c r="T64" s="47"/>
     </row>
     <row r="65" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T65" s="60"/>
+      <c r="T65" s="47"/>
     </row>
     <row r="66" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T66" s="60"/>
+      <c r="T66" s="47"/>
     </row>
     <row r="67" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T67" s="60"/>
+      <c r="T67" s="47"/>
     </row>
     <row r="68" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T68" s="60"/>
+      <c r="T68" s="47"/>
     </row>
     <row r="69" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T69" s="60"/>
+      <c r="T69" s="47"/>
     </row>
     <row r="70" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T70" s="60"/>
+      <c r="T70" s="47"/>
     </row>
     <row r="71" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T71" s="60"/>
+      <c r="T71" s="47"/>
     </row>
     <row r="72" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T72" s="60"/>
+      <c r="T72" s="47"/>
     </row>
     <row r="73" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T73" s="60"/>
+      <c r="T73" s="47"/>
     </row>
     <row r="74" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T74" s="60"/>
+      <c r="T74" s="47"/>
     </row>
     <row r="75" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T75" s="60"/>
+      <c r="T75" s="47"/>
     </row>
     <row r="76" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T76" s="60"/>
+      <c r="T76" s="47"/>
     </row>
     <row r="77" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T77" s="60"/>
+      <c r="T77" s="47"/>
     </row>
     <row r="78" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T78" s="60"/>
+      <c r="T78" s="47"/>
     </row>
     <row r="79" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T79" s="60"/>
+      <c r="T79" s="47"/>
     </row>
     <row r="80" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T80" s="60"/>
+      <c r="T80" s="47"/>
     </row>
     <row r="81" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T81" s="60"/>
+      <c r="T81" s="47"/>
     </row>
     <row r="82" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T82" s="62"/>
+      <c r="T82" s="49"/>
     </row>
     <row r="83" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T83" s="60"/>
+      <c r="T83" s="47"/>
     </row>
     <row r="84" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T84" s="60"/>
+      <c r="T84" s="47"/>
     </row>
     <row r="85" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T85" s="60"/>
+      <c r="T85" s="47"/>
     </row>
     <row r="86" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T86" s="60"/>
+      <c r="T86" s="47"/>
     </row>
     <row r="87" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T87" s="60"/>
+      <c r="T87" s="47"/>
     </row>
     <row r="88" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T88" s="60"/>
+      <c r="T88" s="47"/>
     </row>
     <row r="89" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T89" s="60"/>
+      <c r="T89" s="47"/>
     </row>
     <row r="90" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T90" s="60"/>
+      <c r="T90" s="47"/>
     </row>
     <row r="91" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T91" s="60"/>
+      <c r="T91" s="47"/>
     </row>
     <row r="92" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T92" s="60"/>
+      <c r="T92" s="47"/>
     </row>
     <row r="93" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T93" s="60"/>
+      <c r="T93" s="47"/>
     </row>
     <row r="94" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T94" s="60"/>
+      <c r="T94" s="47"/>
     </row>
     <row r="95" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T95" s="60"/>
+      <c r="T95" s="47"/>
     </row>
     <row r="96" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T96" s="60"/>
+      <c r="T96" s="47"/>
     </row>
     <row r="97" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T97" s="60"/>
+      <c r="T97" s="47"/>
     </row>
     <row r="98" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T98" s="60"/>
+      <c r="T98" s="47"/>
     </row>
     <row r="99" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T99" s="60"/>
+      <c r="T99" s="47"/>
     </row>
     <row r="100" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T100" s="60"/>
+      <c r="T100" s="47"/>
     </row>
     <row r="101" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T101" s="60"/>
+      <c r="T101" s="47"/>
     </row>
     <row r="102" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T102" s="60"/>
+      <c r="T102" s="47"/>
     </row>
     <row r="103" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T103" s="60"/>
+      <c r="T103" s="47"/>
     </row>
     <row r="104" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T104" s="60"/>
+      <c r="T104" s="47"/>
     </row>
     <row r="105" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T105" s="60"/>
+      <c r="T105" s="47"/>
     </row>
     <row r="106" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T106" s="60"/>
+      <c r="T106" s="47"/>
     </row>
     <row r="107" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T107" s="60"/>
+      <c r="T107" s="47"/>
     </row>
     <row r="108" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T108" s="60"/>
+      <c r="T108" s="47"/>
     </row>
     <row r="109" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T109" s="60"/>
+      <c r="T109" s="47"/>
     </row>
     <row r="110" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T110" s="60"/>
+      <c r="T110" s="47"/>
     </row>
     <row r="111" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T111" s="60"/>
+      <c r="T111" s="47"/>
     </row>
     <row r="112" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T112" s="60"/>
+      <c r="T112" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="O2"/>
+    <mergeCell ref="P2"/>
+    <mergeCell ref="Q2"/>
+    <mergeCell ref="R2"/>
+    <mergeCell ref="S2"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="N2"/>
     <mergeCell ref="C2"/>
     <mergeCell ref="D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2"/>
     <mergeCell ref="I2"/>
-    <mergeCell ref="J2"/>
-    <mergeCell ref="K2"/>
-    <mergeCell ref="L2"/>
-    <mergeCell ref="M2"/>
-    <mergeCell ref="N2"/>
-    <mergeCell ref="O2"/>
-    <mergeCell ref="P2"/>
-    <mergeCell ref="Q2"/>
-    <mergeCell ref="R2"/>
-    <mergeCell ref="S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <legacyDrawing r:id="rId1"/>
@@ -4586,13 +4577,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4601,28 +4592,21 @@
     <col min="2" max="2" width="42.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C1" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="54" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="56"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -4633,83 +4617,80 @@
       <c r="D3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="17"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="22"/>
